--- a/Team-Data/2013-14/1-30-2013-14.xlsx
+++ b/Team-Data/2013-14/1-30-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -953,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -977,16 +1044,16 @@
         <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -1177,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.361</v>
@@ -1618,55 +1685,55 @@
         <v>0.74</v>
       </c>
       <c r="R7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA7" t="n">
         <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.8</v>
+        <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1678,16 +1745,16 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1705,13 +1772,13 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1720,16 +1787,16 @@
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
       </c>
       <c r="BB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC7" t="n">
         <v>25</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2033,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2066,7 +2133,7 @@
         <v>6</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2075,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2200,22 +2267,22 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L11" t="n">
         <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
@@ -2346,19 +2413,19 @@
         <v>0.735</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
@@ -2367,22 +2434,22 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
         <v>22.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>25</v>
@@ -2445,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.778</v>
+        <v>0.795</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,19 +2753,19 @@
         <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.455</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O13" t="n">
         <v>18</v>
@@ -2707,10 +2774,10 @@
         <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
         <v>35.2</v>
@@ -2719,13 +2786,13 @@
         <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2740,13 +2807,13 @@
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2755,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2770,13 +2837,13 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2788,13 +2855,13 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
@@ -2803,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.673</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
         <v>8.300000000000001</v>
@@ -2886,46 +2953,46 @@
         <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R14" t="n">
         <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>106.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2970,13 +3037,13 @@
         <v>24</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3364,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>6</v>
@@ -3489,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
@@ -3689,10 +3756,10 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3701,7 +3768,7 @@
         <v>14</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3850,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M21" t="n">
         <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O21" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P21" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X21" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4235,13 +4302,13 @@
         <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,13 +4329,13 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4277,7 +4344,7 @@
         <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4390,16 +4457,16 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
         <v>16</v>
@@ -4441,7 +4508,7 @@
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4654,7 @@
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>18</v>
@@ -4605,7 +4672,7 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4617,7 +4684,7 @@
         <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
@@ -4632,13 +4699,13 @@
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,37 +4937,37 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O25" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P25" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
         <v>19.4</v>
@@ -4924,13 +4991,13 @@
         <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>11</v>
@@ -4969,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4999,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5721,10 +5788,10 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5852,7 +5919,7 @@
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2013-14</t>
+          <t>2014-01-30</t>
         </is>
       </c>
     </row>
